--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitharao/Desktop/Lead-Poisoning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karishmavanjani/Sites/filter-only-leadstory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70EE528-4A61-604D-BF48-7CD09323D8BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F1CB7-E89C-CB47-9500-302BF3831FEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>state</t>
   </si>
@@ -37,9 +45,6 @@
     <t>Alabama</t>
   </si>
   <si>
-    <t>2%</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -49,9 +54,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>1%</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -61,15 +63,9 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>3%</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
-    <t>5%</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
@@ -103,9 +99,6 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>6%</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
@@ -121,9 +114,6 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>4%</t>
-  </si>
-  <si>
     <t>Minnesota</t>
   </si>
   <si>
@@ -188,9 +178,6 @@
   </si>
   <si>
     <t>Vermont</t>
-  </si>
-  <si>
-    <t>8%</t>
   </si>
   <si>
     <t>Virginia</t>
@@ -356,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,6 +361,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,21 +392,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -709,16 +717,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="130.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -729,7 +738,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -743,726 +752,733 @@
       <c r="B2">
         <v>353913</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="6">
+        <v>8.2588093684040992E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>64894</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>526368</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" s="6">
+        <v>0.11418057328712991</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>231143</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3007336</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>406560</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7" s="6">
+        <v>6.5874655647382915E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>230924</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="6">
+        <v>0.31620792988169266</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>66924</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="C9" s="6">
+        <v>0.11695355926125157</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>48440</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
+      <c r="C10" s="6">
+        <v>0.250990916597853</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1317573</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>801479</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
+      <c r="C12" s="6">
+        <v>0.14923285575791756</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>108613</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>138582</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>956100</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
+      <c r="C15" s="6">
+        <v>0.14134086392636752</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>508625</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
+      <c r="C16" s="6">
+        <v>8.0534775129024336E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>237837</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>239482</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>330743</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
+      <c r="C19" s="6">
+        <v>3.2318144299350253E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>371818</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
+      <c r="C20" s="6">
+        <v>4.5853078656762178E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>79708</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>442431</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
+      <c r="C22" s="6">
+        <v>0.26820227334883856</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>438438</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
+      <c r="C23" s="6">
+        <v>0.47798548483479991</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>695457</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
+      <c r="C24" s="6">
+        <v>0.20879651797307383</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>421361</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
+      <c r="C25" s="6">
+        <v>0.21367188705172049</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>233970</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
+      <c r="C26" s="6">
+        <v>0.15447279565756294</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>451997</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
+      <c r="C27" s="6">
+        <v>0.20704783438828134</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>74000</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>157168</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>218224</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>79493</v>
       </c>
-      <c r="C31" t="s">
-        <v>27</v>
+      <c r="C31" s="6">
+        <v>0.20111204760167561</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>638634</v>
       </c>
-      <c r="C32" t="s">
-        <v>13</v>
+      <c r="C32" s="6">
+        <v>0.27477866821998204</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>162309</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>102</v>
+      <c r="C33" s="6">
+        <v>6.5393785926843237E-2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>1400567</v>
       </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>95</v>
+      <c r="C34" s="6">
+        <v>0.15397906704927361</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2">
         <v>652912</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>95</v>
+      <c r="C35" s="6">
+        <v>0.45980315877177935</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>734828</v>
       </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>98</v>
+      <c r="C36" s="6">
+        <v>0.11584343547061353</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>61031</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>841179</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>99</v>
+      <c r="C38" s="6">
+        <v>0.19110082396255731</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>319550</v>
       </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>103</v>
+      <c r="C39" s="6">
+        <v>0.13617274291973086</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>280492</v>
       </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>104</v>
+      <c r="C40" s="6">
+        <v>6.5096330733140334E-2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>863465</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>66089</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>96</v>
+      <c r="C42" s="6">
+        <v>0.38637292136361573</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>353117</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>72148</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>485409</v>
       </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>107</v>
+      <c r="C45" s="6">
+        <v>0.18386968515210883</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>2373167</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>305875</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>37040</v>
       </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="6">
+        <v>0.26519978401727862</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>614931</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>536873</v>
       </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="6">
+        <v>6.0783462755623768E-2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>122930</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="6">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>413384</v>
       </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="6">
+        <v>0.21244653881137152</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>46017</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karishmavanjani/Sites/filter-only-leadstory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitharao/Desktop/lead-story/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F1CB7-E89C-CB47-9500-302BF3831FEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA2173E-4C4C-2D49-AF07-6011E77F034E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t>state</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Alabama</t>
   </si>
   <si>
+    <t>2%</t>
+  </si>
+  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>1%</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -63,9 +69,15 @@
     <t>Colorado</t>
   </si>
   <si>
+    <t>3%</t>
+  </si>
+  <si>
     <t>Connecticut</t>
   </si>
   <si>
+    <t>5%</t>
+  </si>
+  <si>
     <t>Delaware</t>
   </si>
   <si>
@@ -99,6 +111,9 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>6%</t>
+  </si>
+  <si>
     <t>Louisiana</t>
   </si>
   <si>
@@ -114,6 +129,9 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>4%</t>
+  </si>
+  <si>
     <t>Minnesota</t>
   </si>
   <si>
@@ -180,6 +198,9 @@
     <t>Vermont</t>
   </si>
   <si>
+    <t>8%</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
@@ -195,27 +216,15 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Arkansas has a  screening program to identify children under 6 years with lead poisoning or potential lead poisoning; poisoned children are to be tested within 3 months.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schools are obligated by statute to require students entering pre-schools, kindergartens and day care centers to show proof of a blood lead test. </t>
   </si>
   <si>
-    <t>District law requires ALL children to be tested twice by two – once between 6-14 months and again between 22 and 26 months. But there are also other specific circumstances that can trigger screening requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama offers a Lead hazard Reduction Contractor Certification prgram for  all persons engaged in lead-based paint activities. It's $300 for each child occupied facility plus 2% of the contract. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The government database consists of  lead screening data for 1998 through 2003 for children less than 16 years of age. A child can only be screened once initially, all other tests are confirmatory tests. </t>
   </si>
   <si>
     <t>Hawaii’s updated guidelines are based on Medicaid which requires testing of all children with Medicaid coverage.</t>
   </si>
   <si>
-    <t>On July 1, 2008, Iowa required all children entering kindergarten to have at least one lead test.</t>
-  </si>
-  <si>
     <t>Not all families in Kansas are required  to have an in-home investigations to identify lead and other healthy homes hazards in the child’s environment.</t>
   </si>
   <si>
@@ -225,45 +234,18 @@
     <t>Maine and federal laws require tests at 1 and 2 years for children covered by MaineCare.</t>
   </si>
   <si>
-    <t>Every child must have a lead test before they begin daycare, Kindergarten, or preschool.</t>
-  </si>
-  <si>
     <t>Under the new standards, employees cannot return to work in Michigan until their blood lead level is below 15 ug/dL</t>
   </si>
   <si>
-    <t>Lead testing is not universal in Minnesota i.e not all children are tested.</t>
-  </si>
-  <si>
     <t>A bill passed in Maryland (House Bill 1253) lowered the actionable amount of lead levels in school drinking water from 20 parts per billion to no more than 5 parts per billion.</t>
   </si>
   <si>
     <t>State of Louisiana received $600,750 in 2018 for childhood lead poisoning prevention programmatic activities from the Centers for Disease Control and Prevention.</t>
   </si>
   <si>
-    <t>Indiana law does not require universal testing of all children under age 7; only children covered by Medicaid are required by federal law.</t>
-  </si>
-  <si>
-    <t>Health care providers are required to perform an annual testing of children from 6 months of age through 6 years of age DETERMINED to be at high risk for lead exposure.</t>
-  </si>
-  <si>
     <t>Blood lead tests are available by request for any person residing in Idaho, however the focus of testing are Idaho Medicaid eligible children.</t>
   </si>
   <si>
-    <t>All laboratories in Florida must report all blood lead test results by the close of the next business day following laboratory findings.</t>
-  </si>
-  <si>
-    <t>All clinical laboratories must report blood lead levels of equal to or greater than 10 µg/dl of blood within forty-eight hours of analysis.</t>
-  </si>
-  <si>
-    <t>Colorado guidelines currently recommend that all low-income children in Colorado should be tested for lead at 12 months and 24 months of age.</t>
-  </si>
-  <si>
-    <t>California requires reporting by medical laboratories of EBL( elevated blood lead) over 25 μg/dL (may be lowered to 15 μg/dL).</t>
-  </si>
-  <si>
-    <t>Arizona requires reporting by physicians of blood/lead above 25 μg/dL.</t>
-  </si>
-  <si>
     <t>State of Alaska received $355,958 in 2018 for childhood lead poisoning prevention programmatic activities from the Centers for Disease Control and Prevention.</t>
   </si>
   <si>
@@ -337,6 +319,54 @@
   </si>
   <si>
     <t>All children under 6 years of age living in high-risk areas must be tested for lead poisoning</t>
+  </si>
+  <si>
+    <t>percentage tested</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires reporting by medical laboratories of EBL( elevated blood lead) over 25 μg/dL </t>
+  </si>
+  <si>
+    <t>Requires reporting by physicians of blood/lead above 25 μg/dL</t>
+  </si>
+  <si>
+    <t>Recommends that all low-income children in Colorado should be tested for lead at ages 1 and 2</t>
+  </si>
+  <si>
+    <t>Requires all clinical laboratories to report blood lead levels of equal to or greater than 10 µg/dl of blood within forty-eight hours of analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires annual testing of childrenat high risk of lead exposure from 6 months  through 6 years of age </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires  children covered by Medicaid under the age of 6 to be tested </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The President's Task Force on Environmental Health Risks and Safety Risks to Children recently released an action plan to help various federal agencies in their efforts to protect children from lead exposure </t>
+  </si>
+  <si>
+    <t>Requires All children to be tested twice  – once between 6-14 months and again between 22 and 26 months</t>
+  </si>
+  <si>
+    <t>Recommends All laboratories  must report all blood lead test results by the close of the next business day following laboratory findings</t>
+  </si>
+  <si>
+    <t>Requires every child have a lead test before they begin daycare, kindergarten, or preschool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requires all children entering kindergarten to have had at least one lead test</t>
+  </si>
+  <si>
+    <t>Recommends targeted testing of children under 6 years covered by Medicaid</t>
+  </si>
+  <si>
+    <t>Recommends testing of children under 6 years in high-risk areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Has a  screening program to identify children under 6 years with lead poisoning or potential lead poisoning</t>
   </si>
 </sst>
 </file>
@@ -366,6 +396,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -396,21 +427,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,768 +750,944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="130.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="156.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>353913</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
         <v>8.2588093684040992E-2</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>64894</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>526368</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.11418057328712991</v>
       </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>231143</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3007336</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>406560</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
         <v>6.5874655647382915E-2</v>
       </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>230924</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.31620792988169266</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>66924</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.11695355926125157</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>48440</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
         <v>0.250990916597853</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1317573</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>801479</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
         <v>0.14923285575791756</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>108613</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>138582</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>956100</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
         <v>0.14134086392636752</v>
       </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>508625</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
         <v>8.0534775129024336E-2</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>237837</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>239482</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>330743</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6">
         <v>3.2318144299350253E-2</v>
       </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>371818</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6">
         <v>4.5853078656762178E-2</v>
       </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>79708</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>442431</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
         <v>0.26820227334883856</v>
       </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>438438</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6">
         <v>0.47798548483479991</v>
       </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>695457</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.20879651797307383</v>
       </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>421361</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
         <v>0.21367188705172049</v>
       </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>233970</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6">
         <v>0.15447279565756294</v>
       </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>451997</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6">
         <v>0.20704783438828134</v>
       </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>74000</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>157168</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>218224</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>79493</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="6">
         <v>0.20111204760167561</v>
       </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>638634</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.27477866821998204</v>
       </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>162309</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6">
         <v>6.5393785926843237E-2</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>1400567</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6">
         <v>0.15397906704927361</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="2">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1">
         <v>652912</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="6">
         <v>0.45980315877177935</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>734828</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="6">
         <v>0.11584343547061353</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>61031</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>841179</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6">
         <v>0.19110082396255731</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>319550</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6">
         <v>0.13617274291973086</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>280492</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6">
         <v>6.5096330733140334E-2</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>863465</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>66089</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="6">
         <v>0.38637292136361573</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>353117</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>72148</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>485409</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6">
         <v>0.18386968515210883</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>2373167</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>305875</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>37040</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="6">
         <v>0.26519978401727862</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>90</v>
+      <c r="E48" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>614931</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>536873</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6">
         <v>6.0783462755623768E-2</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>93</v>
+      <c r="E50" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>122930</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
         <v>0.1368421052631579</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>94</v>
+      <c r="E51" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>413384</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="6">
         <v>0.21244653881137152</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>94</v>
+      <c r="E52" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>46017</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="8">
+        <v>24193364</v>
+      </c>
+      <c r="C54" s="9">
+        <v>3.9999999105930301E-2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.10404233160795663</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
